--- a/documentation/openfiles2.0testplan.xlsx
+++ b/documentation/openfiles2.0testplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rschmitt/git/openfiles/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5652C924-1839-8B4A-A797-9BE800409348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84502DA3-E930-1446-BD5E-E8A6380F26EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{17A664D3-DD65-F348-8A7E-D5B50A5E4EFE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
     <t>Run Server in VM</t>
   </si>
@@ -286,13 +286,22 @@
     <t>rename a directory</t>
   </si>
   <si>
-    <t>hidden files are never shown.  SAF does not pass a "show hidden" flag.</t>
-  </si>
-  <si>
     <t>Read a big file, store a big file</t>
   </si>
   <si>
     <t>Copy Big files (15MB)</t>
+  </si>
+  <si>
+    <t>check that hidden files are hidden or shown</t>
+  </si>
+  <si>
+    <t>Check that hidden shares are hidden (IPC$) are hidden always</t>
+  </si>
+  <si>
+    <t>See that we can browse large directories</t>
+  </si>
+  <si>
+    <t>What happens on duplicate remote names (error)  but document</t>
   </si>
 </sst>
 </file>
@@ -644,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7839C75F-7BE5-084F-BF50-F7BACAAF3E21}">
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1047,78 +1056,93 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C85" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C87" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C88" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C90" t="s">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C92" t="s">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
         <v>2</v>
       </c>
     </row>

--- a/documentation/openfiles2.0testplan.xlsx
+++ b/documentation/openfiles2.0testplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rschmitt/git/openfiles/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84502DA3-E930-1446-BD5E-E8A6380F26EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58BFDD3-EE6E-6A46-B523-B3AE302497B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17440" xr2:uid="{17A664D3-DD65-F348-8A7E-D5B50A5E4EFE}"/>
   </bookViews>
